--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.279621666666667</v>
+        <v>2.322284</v>
       </c>
       <c r="H2">
-        <v>12.838865</v>
+        <v>6.966852</v>
       </c>
       <c r="I2">
-        <v>0.07738101347700442</v>
+        <v>0.05374183487824914</v>
       </c>
       <c r="J2">
-        <v>0.07738101347700442</v>
+        <v>0.05374183487824913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>73.46625372948337</v>
+        <v>4.707537504754667</v>
       </c>
       <c r="R2">
-        <v>661.1962835653502</v>
+        <v>42.367837542792</v>
       </c>
       <c r="S2">
-        <v>0.004336009472696077</v>
+        <v>0.0003544964359246706</v>
       </c>
       <c r="T2">
-        <v>0.004336009472696077</v>
+        <v>0.0003544964359246705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.279621666666667</v>
+        <v>2.322284</v>
       </c>
       <c r="H3">
-        <v>12.838865</v>
+        <v>6.966852</v>
       </c>
       <c r="I3">
-        <v>0.07738101347700442</v>
+        <v>0.05374183487824914</v>
       </c>
       <c r="J3">
-        <v>0.07738101347700442</v>
+        <v>0.05374183487824913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>1097.484605397816</v>
+        <v>595.5365071667147</v>
       </c>
       <c r="R3">
-        <v>9877.361448580341</v>
+        <v>5359.828564500432</v>
       </c>
       <c r="S3">
-        <v>0.06477400716069572</v>
+        <v>0.04484628514173243</v>
       </c>
       <c r="T3">
-        <v>0.06477400716069572</v>
+        <v>0.04484628514173242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.279621666666667</v>
+        <v>2.322284</v>
       </c>
       <c r="H4">
-        <v>12.838865</v>
+        <v>6.966852</v>
       </c>
       <c r="I4">
-        <v>0.07738101347700442</v>
+        <v>0.05374183487824914</v>
       </c>
       <c r="J4">
-        <v>0.07738101347700442</v>
+        <v>0.05374183487824913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>140.1378748212878</v>
+        <v>113.4209675134494</v>
       </c>
       <c r="R4">
-        <v>1261.24087339159</v>
+        <v>1020.788707621044</v>
       </c>
       <c r="S4">
-        <v>0.008270996843612622</v>
+        <v>0.008541053300592037</v>
       </c>
       <c r="T4">
-        <v>0.008270996843612622</v>
+        <v>0.008541053300592032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.422764</v>
       </c>
       <c r="I5">
-        <v>0.4485528046349828</v>
+        <v>0.5740922721009293</v>
       </c>
       <c r="J5">
-        <v>0.4485528046349828</v>
+        <v>0.5740922721009293</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>425.8602036296401</v>
+        <v>50.287842017816</v>
       </c>
       <c r="R5">
-        <v>3832.741832666761</v>
+        <v>452.590578160344</v>
       </c>
       <c r="S5">
-        <v>0.02513444994461929</v>
+        <v>0.003786875993585464</v>
       </c>
       <c r="T5">
-        <v>0.02513444994461929</v>
+        <v>0.003786875993585463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.422764</v>
       </c>
       <c r="I6">
-        <v>0.4485528046349828</v>
+        <v>0.5740922721009293</v>
       </c>
       <c r="J6">
-        <v>0.4485528046349828</v>
+        <v>0.5740922721009293</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>6361.764671655535</v>
@@ -818,10 +818,10 @@
         <v>57255.88204489982</v>
       </c>
       <c r="S6">
-        <v>0.3754740507244813</v>
+        <v>0.4790663696286154</v>
       </c>
       <c r="T6">
-        <v>0.3754740507244813</v>
+        <v>0.4790663696286154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.422764</v>
       </c>
       <c r="I7">
-        <v>0.4485528046349828</v>
+        <v>0.5740922721009293</v>
       </c>
       <c r="J7">
-        <v>0.4485528046349828</v>
+        <v>0.5740922721009293</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>812.3341109425359</v>
+        <v>1211.609188469212</v>
       </c>
       <c r="R7">
-        <v>7311.006998482824</v>
+        <v>10904.48269622291</v>
       </c>
       <c r="S7">
-        <v>0.04794430396588226</v>
+        <v>0.09123902647872843</v>
       </c>
       <c r="T7">
-        <v>0.04794430396588226</v>
+        <v>0.09123902647872839</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.21862666666667</v>
+        <v>16.081976</v>
       </c>
       <c r="H8">
-        <v>78.65588</v>
+        <v>48.245928</v>
       </c>
       <c r="I8">
-        <v>0.4740661818880128</v>
+        <v>0.3721658930208215</v>
       </c>
       <c r="J8">
-        <v>0.4740661818880128</v>
+        <v>0.3721658930208215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>450.0828412321334</v>
+        <v>32.60002013989867</v>
       </c>
       <c r="R8">
-        <v>4050.745571089201</v>
+        <v>293.400181259088</v>
       </c>
       <c r="S8">
-        <v>0.02656408029551256</v>
+        <v>0.00245491213590848</v>
       </c>
       <c r="T8">
-        <v>0.02656408029551256</v>
+        <v>0.00245491213590848</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.21862666666667</v>
+        <v>16.081976</v>
       </c>
       <c r="H9">
-        <v>78.65588</v>
+        <v>48.245928</v>
       </c>
       <c r="I9">
-        <v>0.4740661818880128</v>
+        <v>0.3721658930208215</v>
       </c>
       <c r="J9">
-        <v>0.4740661818880128</v>
+        <v>0.3721658930208215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>6723.617502327342</v>
+        <v>4124.131163707339</v>
       </c>
       <c r="R9">
-        <v>60512.55752094607</v>
+        <v>37117.18047336605</v>
       </c>
       <c r="S9">
-        <v>0.3968307583537036</v>
+        <v>0.3105636008939895</v>
       </c>
       <c r="T9">
-        <v>0.3968307583537036</v>
+        <v>0.3105636008939894</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.21862666666667</v>
+        <v>16.081976</v>
       </c>
       <c r="H10">
-        <v>78.65588</v>
+        <v>48.245928</v>
       </c>
       <c r="I10">
-        <v>0.4740661818880128</v>
+        <v>0.3721658930208215</v>
       </c>
       <c r="J10">
-        <v>0.4740661818880128</v>
+        <v>0.3721658930208215</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>858.539120506231</v>
+        <v>785.4479802849575</v>
       </c>
       <c r="R10">
-        <v>7726.85208455608</v>
+        <v>7069.031822564617</v>
       </c>
       <c r="S10">
-        <v>0.05067134323879665</v>
+        <v>0.05914737999092355</v>
       </c>
       <c r="T10">
-        <v>0.05067134323879665</v>
+        <v>0.05914737999092353</v>
       </c>
     </row>
   </sheetData>
